--- a/xlsx/核武器_intext.xlsx
+++ b/xlsx/核武器_intext.xlsx
@@ -29,7 +29,7 @@
     <t>结果-节孔行动</t>
   </si>
   <si>
-    <t>政策_政策_美國_核武器</t>
+    <t>体育运动_体育运动_技术_核武器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A6%8F%E6%A8%A1%E6%AE%BA%E5%82%B7%E6%80%A7%E6%AD%A6%E5%99%A8</t>
